--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_EnCQR-LSTM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_EnCQR-LSTM.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>86.49860946529679</v>
+        <v>85.71675767925336</v>
       </c>
       <c r="C2">
-        <v>87.08657012055097</v>
+        <v>84.69382744795865</v>
       </c>
       <c r="D2">
-        <v>87.46086396782925</v>
+        <v>85.33332045116963</v>
       </c>
       <c r="E2">
-        <v>85.32470234026043</v>
+        <v>85.61792736458111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>98.60433147339909</v>
+        <v>96.75749996185083</v>
       </c>
       <c r="C3">
-        <v>98.55478638998568</v>
+        <v>93.5463033240045</v>
       </c>
       <c r="D3">
-        <v>98.96441048973571</v>
+        <v>96.77404069220678</v>
       </c>
       <c r="E3">
-        <v>98.12273836953554</v>
+        <v>94.63371606006127</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>98.71960432570633</v>
+        <v>98.96081898877081</v>
       </c>
       <c r="C4">
-        <v>98.80690648536795</v>
+        <v>99.06258632147387</v>
       </c>
       <c r="D4">
-        <v>98.69513487898436</v>
+        <v>98.94452880065849</v>
       </c>
       <c r="E4">
-        <v>98.70117625465521</v>
+        <v>99.09910535596723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.53551753098736</v>
+        <v>98.61838668025598</v>
       </c>
       <c r="C5">
-        <v>98.5733871765563</v>
+        <v>98.67065075131791</v>
       </c>
       <c r="D5">
-        <v>98.5151335526635</v>
+        <v>98.52054337903078</v>
       </c>
       <c r="E5">
-        <v>98.55460551416596</v>
+        <v>98.54023713723193</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.2424126790029</v>
+        <v>98.33217964700556</v>
       </c>
       <c r="C6">
-        <v>98.12213572686875</v>
+        <v>98.25661957506259</v>
       </c>
       <c r="D6">
-        <v>98.26140209057803</v>
+        <v>98.29205309711423</v>
       </c>
       <c r="E6">
-        <v>98.16368120200742</v>
+        <v>98.3396431843243</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.63437287013052</v>
+        <v>97.62835332232727</v>
       </c>
       <c r="C7">
-        <v>97.57741388741266</v>
+        <v>97.51602361878761</v>
       </c>
       <c r="D7">
-        <v>97.57019548323092</v>
+        <v>97.58040650064591</v>
       </c>
       <c r="E7">
-        <v>97.54621895883459</v>
+        <v>97.56218829767967</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>96.49055422003427</v>
+        <v>96.29246898227525</v>
       </c>
       <c r="C8">
-        <v>96.4083179492864</v>
+        <v>96.36744304973205</v>
       </c>
       <c r="D8">
-        <v>96.39725742896026</v>
+        <v>96.07490805637107</v>
       </c>
       <c r="E8">
-        <v>96.18114305084156</v>
+        <v>96.22810733307395</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_EnCQR-LSTM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_EnCQR-LSTM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.62835332232727</v>
+        <v>97.85559865433497</v>
       </c>
       <c r="C7">
-        <v>97.51602361878761</v>
+        <v>97.93966211328623</v>
       </c>
       <c r="D7">
-        <v>97.58040650064591</v>
+        <v>97.93993746312258</v>
       </c>
       <c r="E7">
-        <v>97.56218829767967</v>
+        <v>97.94459353283987</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.62835332232727</v>
+      </c>
+      <c r="C8">
+        <v>97.51602361878761</v>
+      </c>
+      <c r="D8">
+        <v>97.58040650064591</v>
+      </c>
+      <c r="E8">
+        <v>97.56218829767967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>96.29246898227525</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>96.36744304973205</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>96.07490805637107</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>96.22810733307395</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_EnCQR-LSTM.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_EnCQR-LSTM.xlsx
@@ -432,16 +432,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>85.71675767925336</v>
+        <v>87.15747049631544</v>
       </c>
       <c r="C2">
-        <v>84.69382744795865</v>
+        <v>85.56960883729815</v>
       </c>
       <c r="D2">
-        <v>85.33332045116963</v>
+        <v>86.74909249621672</v>
       </c>
       <c r="E2">
-        <v>85.61792736458111</v>
+        <v>86.43756662660813</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +449,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>96.75749996185083</v>
+        <v>96.89236841920233</v>
       </c>
       <c r="C3">
-        <v>93.5463033240045</v>
+        <v>93.97978612548049</v>
       </c>
       <c r="D3">
-        <v>96.77404069220678</v>
+        <v>97.74026796983379</v>
       </c>
       <c r="E3">
-        <v>94.63371606006127</v>
+        <v>96.11139236723272</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +466,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>98.96081898877081</v>
+        <v>98.99688545465644</v>
       </c>
       <c r="C4">
-        <v>99.06258632147387</v>
+        <v>99.01798399007733</v>
       </c>
       <c r="D4">
-        <v>98.94452880065849</v>
+        <v>98.62829296414554</v>
       </c>
       <c r="E4">
-        <v>99.09910535596723</v>
+        <v>99.10502191216564</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +483,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.61838668025598</v>
+        <v>98.69190515134034</v>
       </c>
       <c r="C5">
-        <v>98.67065075131791</v>
+        <v>98.53923888870015</v>
       </c>
       <c r="D5">
-        <v>98.52054337903078</v>
+        <v>98.57874915973579</v>
       </c>
       <c r="E5">
-        <v>98.54023713723193</v>
+        <v>98.64413817508448</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +500,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.33217964700556</v>
+        <v>98.42840706434657</v>
       </c>
       <c r="C6">
-        <v>98.25661957506259</v>
+        <v>98.4513514054043</v>
       </c>
       <c r="D6">
-        <v>98.29205309711423</v>
+        <v>98.51121505988981</v>
       </c>
       <c r="E6">
-        <v>98.3396431843243</v>
+        <v>98.34774029915036</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.85559865433497</v>
+        <v>97.84222378130558</v>
       </c>
       <c r="C7">
-        <v>97.93966211328623</v>
+        <v>97.78371362265267</v>
       </c>
       <c r="D7">
-        <v>97.93993746312258</v>
+        <v>98.09169748338373</v>
       </c>
       <c r="E7">
-        <v>97.94459353283987</v>
+        <v>97.63473444963604</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.62835332232727</v>
+        <v>97.90018380601698</v>
       </c>
       <c r="C8">
-        <v>97.51602361878761</v>
+        <v>96.99225428792676</v>
       </c>
       <c r="D8">
-        <v>97.58040650064591</v>
+        <v>97.21957300024354</v>
       </c>
       <c r="E8">
-        <v>97.56218829767967</v>
+        <v>97.6788984342578</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>96.29246898227525</v>
+        <v>96.04604249573356</v>
       </c>
       <c r="C9">
-        <v>96.36744304973205</v>
+        <v>95.96238544459246</v>
       </c>
       <c r="D9">
-        <v>96.07490805637107</v>
+        <v>96.5745243230481</v>
       </c>
       <c r="E9">
-        <v>96.22810733307395</v>
+        <v>95.7771745445792</v>
       </c>
     </row>
   </sheetData>
